--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission- Masters.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission- Masters.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Addmision-Department" sheetId="1" r:id="rId1"/>
-    <sheet name="Course Type" sheetId="2" r:id="rId2"/>
-    <sheet name="Course" sheetId="3" r:id="rId3"/>
-    <sheet name="Semester" sheetId="4" r:id="rId4"/>
-    <sheet name="Modules" sheetId="5" r:id="rId5"/>
-    <sheet name=" Academic Year" sheetId="6" r:id="rId6"/>
-    <sheet name=" Academic Term" sheetId="7" r:id="rId7"/>
-    <sheet name=" Room" sheetId="8" r:id="rId8"/>
-    <sheet name="Student" sheetId="9" r:id="rId9"/>
+    <sheet name="TC1_Department" sheetId="1" r:id="rId1"/>
+    <sheet name="TC2_Course Type" sheetId="2" r:id="rId2"/>
+    <sheet name="TC3_Course" sheetId="3" r:id="rId3"/>
+    <sheet name="TC4_Semester" sheetId="4" r:id="rId4"/>
+    <sheet name="TC5_Modules" sheetId="5" r:id="rId5"/>
+    <sheet name="TC6_ Academic Year" sheetId="6" r:id="rId6"/>
+    <sheet name=" TC7_Academic Term" sheetId="7" r:id="rId7"/>
+    <sheet name=" TC8_Room" sheetId="8" r:id="rId8"/>
+    <sheet name="TC9_Student" sheetId="9" r:id="rId9"/>
+    <sheet name="TC10_Topic" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="344">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Department Masters</t>
+    <t>TC1_Department</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -542,7 +543,7 @@
     </r>
   </si>
   <si>
-    <t>Course Type</t>
+    <t>TC2_Course Type</t>
   </si>
   <si>
     <t xml:space="preserve">1.A Program Grade is a specialized functional area or a division within the Department. 
@@ -689,7 +690,7 @@
     </r>
   </si>
   <si>
-    <t>Course</t>
+    <t>TC3_Course</t>
   </si>
   <si>
     <t>1.A program will have an educational curriculum defined by user institute to streamline the learning process and goals in each subject or module. 
@@ -852,7 +853,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Semester </t>
+    <t xml:space="preserve">TC4_Semester </t>
   </si>
   <si>
     <t xml:space="preserve">1.A semester is individual part of a program. A semester system divides the academic year into different sessions which have various course enrollments enlisted in them.
@@ -1015,7 +1016,7 @@
     </r>
   </si>
   <si>
-    <t>Modules</t>
+    <t>TC5_Modules</t>
   </si>
   <si>
     <t xml:space="preserve">1.A module can be considered as a subject or a part of an educational program which is to be taught for a term
@@ -1111,7 +1112,7 @@
     <t>Page is saved with proper data</t>
   </si>
   <si>
-    <t>Academic Year</t>
+    <t>TC6_ Academic Year</t>
   </si>
   <si>
     <t xml:space="preserve">1.An academic year is a period which the Educational Institutes, Schools and Universities use to measure a quantity of study. 
@@ -1265,11 +1266,14 @@
     <t>Fill mandatory &amp; other necessary fields, then click on save button</t>
   </si>
   <si>
-    <t>Academic Term</t>
+    <t xml:space="preserve"> TC7_Academic Term</t>
   </si>
   <si>
     <t>1.An Academic Term would become a part of the Academic Year, during which the Institute will assess its students on the curriculum defined for that term. It could be a Quarter, Trimester or a Semester.
 2. The Academic term form enables user to create academic terms within an Academic Year.</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
   </si>
   <si>
     <t>Verify the add Academic .</t>
@@ -1357,7 +1361,7 @@
     <t>Page is saved successfully</t>
   </si>
   <si>
-    <t xml:space="preserve"> Room</t>
+    <t>TC8_Room</t>
   </si>
   <si>
     <t xml:space="preserve">1.Class room refers to a tutoring space which can be set as the venue for courses or examinations. 
@@ -1459,7 +1463,7 @@
     </r>
   </si>
   <si>
-    <t>Student</t>
+    <t>TC9_Student</t>
   </si>
   <si>
     <t>Test Student Module</t>
@@ -1977,18 +1981,84 @@
   <si>
     <t>Document Changed</t>
   </si>
+  <si>
+    <t>TC10_Topic</t>
+  </si>
+  <si>
+    <t>A Topic is a sub unit of a Module and will contain all the contents related to the topic.</t>
+  </si>
+  <si>
+    <t>url: wscdemo.eduleadonline.com</t>
+  </si>
+  <si>
+    <t>New Topic</t>
+  </si>
+  <si>
+    <t>Admission &gt;  Masters &gt;  Topic</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Admission &gt;  Masters &gt;  Topic</t>
+  </si>
+  <si>
+    <t>Topic page should be open</t>
+  </si>
+  <si>
+    <t>View the Topic page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Topic page</t>
+  </si>
+  <si>
+    <t>Click Add Topic button</t>
+  </si>
+  <si>
+    <t>Add Topic button should be clickable and new Topic addition page should be open</t>
+  </si>
+  <si>
+    <t>Without fill any mandatory fields, click on save button</t>
+  </si>
+  <si>
+    <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields should be mentioned as * symbol.</t>
+  </si>
+  <si>
+    <t>fill only mandatory fields, click on save button</t>
+  </si>
+  <si>
+    <t>click on Name text field, fill the name of topic</t>
+  </si>
+  <si>
+    <t>Name text field should be clickable. user should able to fill it</t>
+  </si>
+  <si>
+    <t>click on Description text area, fill it</t>
+  </si>
+  <si>
+    <t>Description text area should be clickable. user should able to fill it</t>
+  </si>
+  <si>
+    <t>After fill the mandatory &amp; required fields, click on save button</t>
+  </si>
+  <si>
+    <t>Page should be saved successfully. New Topic should be created</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,13 +2067,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.15"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2024,13 +2117,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2175,16 +2261,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2200,6 +2278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,299 +2665,332 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3231,513 +3348,513 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="14" customWidth="1"/>
-    <col min="2" max="2" width="60.2857142857143" style="14" customWidth="1"/>
-    <col min="3" max="3" width="60.4285714285714" style="14" customWidth="1"/>
-    <col min="4" max="4" width="53.1428571428571" style="14" customWidth="1"/>
-    <col min="5" max="5" width="20.8571428571429" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.2857142857143" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
+    <col min="2" max="2" width="60.2857142857143" style="28" customWidth="1"/>
+    <col min="3" max="3" width="60.4285714285714" style="28" customWidth="1"/>
+    <col min="4" max="4" width="53.1428571428571" style="28" customWidth="1"/>
+    <col min="5" max="5" width="20.8571428571429" style="28" customWidth="1"/>
+    <col min="6" max="6" width="20.2857142857143" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="66"/>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" ht="75" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" ht="45" spans="1:6">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="57"/>
+      <c r="E20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" ht="30" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="57"/>
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" ht="30" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="57"/>
+      <c r="E22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="E29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="E31" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="25"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-    </row>
-    <row r="36" s="15" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="36" s="29" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
+    <row r="37" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A37" s="11"/>
+      <c r="B37" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31" t="s">
+      <c r="E37" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A38" s="11"/>
+      <c r="B38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31" t="s">
+    <row r="39" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31" t="s">
+    <row r="40" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A40" s="11"/>
+      <c r="B40" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="10"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3752,231 +3869,572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:1">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
+      <c r="A26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="14" customWidth="1"/>
-    <col min="2" max="2" width="47.4285714285714" style="14" customWidth="1"/>
-    <col min="3" max="3" width="49.5714285714286" style="14" customWidth="1"/>
-    <col min="4" max="4" width="42.1428571428571" style="14" customWidth="1"/>
-    <col min="5" max="5" width="40.4285714285714" style="14" customWidth="1"/>
-    <col min="6" max="6" width="33.1428571428571" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.7142857142857" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
+    <col min="2" max="2" width="47.4285714285714" style="28" customWidth="1"/>
+    <col min="3" max="3" width="49.5714285714286" style="28" customWidth="1"/>
+    <col min="4" max="4" width="42.1428571428571" style="28" customWidth="1"/>
+    <col min="5" max="5" width="40.4285714285714" style="28" customWidth="1"/>
+    <col min="6" max="6" width="33.1428571428571" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="58" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="E7" s="10" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="21"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" ht="29.25" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="21" s="29" customFormat="1" spans="1:5">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="52" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3996,399 +4454,399 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="15" customWidth="1"/>
-    <col min="2" max="2" width="58.8571428571429" style="15" customWidth="1"/>
-    <col min="3" max="3" width="71" style="15" customWidth="1"/>
-    <col min="4" max="4" width="45.4285714285714" style="15" customWidth="1"/>
-    <col min="5" max="5" width="39" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="13.5714285714286" style="29" customWidth="1"/>
+    <col min="2" max="2" width="58.8571428571429" style="29" customWidth="1"/>
+    <col min="3" max="3" width="71" style="29" customWidth="1"/>
+    <col min="4" max="4" width="45.4285714285714" style="29" customWidth="1"/>
+    <col min="5" max="5" width="39" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9" style="29" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="79" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" ht="30" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="10" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" s="14" customFormat="1" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:6">
+      <c r="A14" s="25"/>
+      <c r="B14" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" s="14" customFormat="1" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" s="28" customFormat="1" spans="1:6">
+      <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="51"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="51"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="51"/>
+      <c r="E18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="51"/>
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="51"/>
+      <c r="E20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" ht="45" spans="1:6">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="51"/>
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="51"/>
-    </row>
-    <row r="24" s="15" customFormat="1" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27" t="s">
+      <c r="E22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="24" s="29" customFormat="1" spans="1:5">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
+      <c r="E25" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31" t="s">
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4409,340 +4867,340 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="14" customWidth="1"/>
-    <col min="2" max="2" width="36.1428571428571" style="14" customWidth="1"/>
-    <col min="3" max="3" width="56.7142857142857" style="14" customWidth="1"/>
-    <col min="4" max="4" width="43.7142857142857" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.2857142857143" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
+    <col min="2" max="2" width="36.1428571428571" style="28" customWidth="1"/>
+    <col min="3" max="3" width="56.7142857142857" style="28" customWidth="1"/>
+    <col min="4" max="4" width="43.7142857142857" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.2857142857143" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="73" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:6">
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="57"/>
     </row>
     <row r="7" ht="45" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="E7" s="47" t="s">
+      <c r="C7" s="33"/>
+      <c r="E7" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" s="15" customFormat="1" ht="30" spans="1:6">
-      <c r="A19" s="50" t="s">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="51"/>
-    </row>
-    <row r="20" s="15" customFormat="1" ht="45" spans="1:6">
-      <c r="A20" s="50" t="s">
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="62"/>
+    </row>
+    <row r="20" s="29" customFormat="1" ht="45" spans="1:6">
+      <c r="A20" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="51"/>
-    </row>
-    <row r="21" s="15" customFormat="1" spans="1:6">
-      <c r="A21" s="50" t="s">
+      <c r="E20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="62"/>
+    </row>
+    <row r="21" s="29" customFormat="1" spans="1:6">
+      <c r="A21" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="51"/>
-    </row>
-    <row r="23" s="15" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="23" s="29" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="52" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+      <c r="E24" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
+      <c r="E25" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4766,332 +5224,332 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="14" customWidth="1"/>
-    <col min="2" max="2" width="44.4285714285714" style="14" customWidth="1"/>
-    <col min="3" max="3" width="59.1428571428571" style="14" customWidth="1"/>
-    <col min="4" max="4" width="46.2857142857143" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.5714285714286" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.8571428571429" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="14"/>
+    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.4285714285714" style="28" customWidth="1"/>
+    <col min="3" max="3" width="59.1428571428571" style="28" customWidth="1"/>
+    <col min="4" max="4" width="46.2857142857143" style="28" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="28" customWidth="1"/>
+    <col min="6" max="6" width="15.8571428571429" style="28" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="122" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="25" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="15" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+      <c r="E20" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="29" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+      <c r="E23" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+      <c r="E24" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5112,285 +5570,285 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.2857142857143" style="15" customWidth="1"/>
-    <col min="3" max="3" width="36.1428571428571" style="15" customWidth="1"/>
-    <col min="4" max="4" width="38.1428571428571" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="13.5714285714286" style="29" customWidth="1"/>
+    <col min="2" max="2" width="38.2857142857143" style="29" customWidth="1"/>
+    <col min="3" max="3" width="36.1428571428571" style="29" customWidth="1"/>
+    <col min="4" max="4" width="38.1428571428571" style="29" customWidth="1"/>
+    <col min="5" max="5" width="20.7142857142857" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="72" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="28" customFormat="1" ht="72" customHeight="1" spans="1:8">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" s="14" customFormat="1" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:8">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" s="14" customFormat="1" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:2">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1"/>
-    <row r="5" s="14" customFormat="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+    <row r="4" s="28" customFormat="1"/>
+    <row r="5" s="28" customFormat="1" spans="1:4">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="30" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="10" t="s">
+    <row r="6" s="28" customFormat="1" ht="30" spans="1:4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="45" spans="4:4">
-      <c r="D7" s="34" t="s">
+    <row r="7" s="28" customFormat="1" ht="45" spans="4:4">
+      <c r="D7" s="45" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:3">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="28" customFormat="1" spans="1:3">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" s="14" customFormat="1"/>
-    <row r="10" s="14" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" s="28" customFormat="1"/>
+    <row r="10" s="28" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" s="28" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A11" s="25"/>
+      <c r="B11" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" s="14" customFormat="1" ht="30" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:6">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" s="28" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="20" s="15" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="E18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="20" s="29" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" s="16" customFormat="1" ht="45" spans="1:5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5410,289 +5868,289 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="15" customWidth="1"/>
-    <col min="2" max="2" width="33" style="15" customWidth="1"/>
-    <col min="3" max="3" width="46.8571428571429" style="15" customWidth="1"/>
-    <col min="4" max="4" width="43.1428571428571" style="15" customWidth="1"/>
-    <col min="5" max="5" width="22.1428571428571" style="15" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="13.5714285714286" style="29" customWidth="1"/>
+    <col min="2" max="2" width="33" style="29" customWidth="1"/>
+    <col min="3" max="3" width="46.8571428571429" style="29" customWidth="1"/>
+    <col min="4" max="4" width="43.1428571428571" style="29" customWidth="1"/>
+    <col min="5" max="5" width="22.1428571428571" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="28" customFormat="1" ht="60" customHeight="1" spans="1:8">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" s="14" customFormat="1" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:8">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" s="14" customFormat="1" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:2">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1"/>
-    <row r="5" s="14" customFormat="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+    <row r="4" s="28" customFormat="1"/>
+    <row r="5" s="28" customFormat="1" spans="1:4">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="30" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="10" t="s">
+    <row r="6" s="28" customFormat="1" ht="30" spans="1:4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="45" spans="4:4">
-      <c r="D7" s="34" t="s">
+    <row r="7" s="28" customFormat="1" ht="45" spans="4:4">
+      <c r="D7" s="45" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:3">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="28" customFormat="1" spans="1:3">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" s="14" customFormat="1"/>
-    <row r="10" s="14" customFormat="1"/>
-    <row r="11" s="14" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A11" s="24" t="s">
+      <c r="B8" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" s="28" customFormat="1"/>
+    <row r="10" s="28" customFormat="1"/>
+    <row r="11" s="28" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="14" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" s="14" customFormat="1" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" s="14" customFormat="1" ht="30" spans="1:6">
-      <c r="A14" s="10" t="s">
+    <row r="12" s="28" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A12" s="25"/>
+      <c r="B12" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:6">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" s="28" customFormat="1" ht="30" spans="1:6">
+      <c r="A14" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="D14" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="D15" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="D17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" ht="75" spans="1:6">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="25"/>
+      <c r="D18" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="21" s="15" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+      <c r="D19" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="21" s="29" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="E22" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5712,301 +6170,301 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15" style="15" customWidth="1"/>
-    <col min="2" max="2" width="71.2857142857143" style="15" customWidth="1"/>
-    <col min="3" max="3" width="50" style="15" customWidth="1"/>
-    <col min="4" max="4" width="43.4285714285714" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.2857142857143" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="15" style="29" customWidth="1"/>
+    <col min="2" max="2" width="71.2857142857143" style="29" customWidth="1"/>
+    <col min="3" max="3" width="50" style="29" customWidth="1"/>
+    <col min="4" max="4" width="43.4285714285714" style="29" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.2857142857143" style="29" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="64" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="28" customFormat="1" ht="64" customHeight="1" spans="1:8">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" s="14" customFormat="1" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" s="28" customFormat="1" spans="1:8">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" s="14" customFormat="1" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" s="28" customFormat="1" spans="1:2">
+      <c r="A3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1"/>
-    <row r="5" s="14" customFormat="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+    <row r="4" s="28" customFormat="1"/>
+    <row r="5" s="28" customFormat="1" spans="1:4">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="45" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+    <row r="6" s="28" customFormat="1" ht="45" spans="1:4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1"/>
-    <row r="8" s="14" customFormat="1" spans="1:3">
-      <c r="A8" s="18" t="s">
+    <row r="7" s="28" customFormat="1"/>
+    <row r="8" s="28" customFormat="1" spans="1:3">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" s="14" customFormat="1"/>
-    <row r="10" s="14" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="B8" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" s="28" customFormat="1"/>
+    <row r="10" s="28" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" s="14" customFormat="1" spans="1:6">
-      <c r="A13" s="10" t="s">
+    <row r="11" s="28" customFormat="1" spans="1:6">
+      <c r="A11" s="25"/>
+      <c r="B11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" s="28" customFormat="1" spans="1:6">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" s="28" customFormat="1" spans="1:6">
+      <c r="A13" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="D13" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" ht="30" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="D14" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="D15" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25"/>
+      <c r="D16" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="20"/>
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="20"/>
+      <c r="E18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" s="15" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" s="29" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="D21" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6024,515 +6482,515 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="14" style="16" customWidth="1"/>
+    <col min="2" max="2" width="71.5714285714286" style="16" customWidth="1"/>
+    <col min="3" max="3" width="50.8571428571429" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" style="16" customWidth="1"/>
+    <col min="5" max="5" width="55.2857142857143" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.1428571428571" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="E1" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="23"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="23"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="23"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="23"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C22" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="C23" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="C24" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" ht="150" spans="1:7">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" ht="120" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="C26" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" ht="165" spans="1:7">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" ht="45" spans="1:7">
-      <c r="A28" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="C28" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" ht="45" spans="1:7">
+      <c r="A30" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" ht="45" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" ht="30" spans="1:7">
-      <c r="A31" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="C31" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" ht="60" spans="1:7">
-      <c r="A32" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="C33" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" ht="45" spans="1:7">
+      <c r="A36" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" ht="195" spans="1:7">
+      <c r="A37" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" ht="45" spans="1:7">
+      <c r="A38" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" ht="30" spans="1:7">
+      <c r="A39" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" ht="30" spans="1:7">
+      <c r="A40" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" ht="45" spans="1:7">
-      <c r="A36" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" ht="195" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" ht="45" spans="1:7">
-      <c r="A38" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" ht="30" spans="1:7">
-      <c r="A40" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="D42" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission- Masters.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission- Masters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="368">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1994,6 +1994,12 @@
     <t>New Topic</t>
   </si>
   <si>
+    <t>Actual Results (Admin)</t>
+  </si>
+  <si>
+    <t>BUG ID</t>
+  </si>
+  <si>
     <t>Admission &gt;  Masters &gt;  Topic</t>
   </si>
   <si>
@@ -2003,24 +2009,36 @@
     <t>Topic page should be open</t>
   </si>
   <si>
+    <t>Topic page is opening</t>
+  </si>
+  <si>
     <t>View the Topic page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on Topic page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on Topic page</t>
+  </si>
+  <si>
     <t>Click Add Topic button</t>
   </si>
   <si>
     <t>Add Topic button should be clickable and new Topic addition page should be open</t>
   </si>
   <si>
+    <t>Add Topic button is clickable and new Topic addition page is open</t>
+  </si>
+  <si>
     <t>Without fill any mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields should be mentioned as * symbol.</t>
   </si>
   <si>
+    <t>Page is not proceed. Alert message is showing for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
+  </si>
+  <si>
     <t>fill only mandatory fields, click on save button</t>
   </si>
   <si>
@@ -2030,22 +2048,93 @@
     <t>Name text field should be clickable. user should able to fill it</t>
   </si>
   <si>
+    <t>Name text field is clickable. user is able to fill it</t>
+  </si>
+  <si>
     <t>click on Description text area, fill it</t>
   </si>
   <si>
     <t>Description text area should be clickable. user should able to fill it</t>
   </si>
   <si>
+    <t>Description text area is clickable. user is able to fill it</t>
+  </si>
+  <si>
     <t>After fill the mandatory &amp; required fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully. New Topic should be created</t>
   </si>
   <si>
+    <t>Page is saved successfully. New Topic is created</t>
+  </si>
+  <si>
+    <t>click on action -&gt; add to courses</t>
+  </si>
+  <si>
+    <t>Add Topic to Courses popup should be open</t>
+  </si>
+  <si>
+    <t>Add Topic to Courses popup is opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Courses dropdown, </t>
+  </si>
+  <si>
+    <t>courses dropdown should be open.
+list of courses should be shown</t>
+  </si>
+  <si>
+    <t>course name is not showing. so user can not identify the course</t>
+  </si>
+  <si>
+    <t>select the course</t>
+  </si>
+  <si>
+    <t>user should able to select the course</t>
+  </si>
+  <si>
+    <t>course can not selected</t>
+  </si>
+  <si>
+    <t>after select the course, click on add button</t>
+  </si>
+  <si>
+    <t>selected course should be added</t>
+  </si>
+  <si>
+    <t>selected course is not  added</t>
+  </si>
+  <si>
     <t>Actual Result</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <t>The user not have all the following accesses.
+Topic screen is not showing to Trainer</t>
+  </si>
+  <si>
+    <t>The user not have all the following accesses.
+Topic screen is not showing to Student</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor rgb="FFDAC98C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,7 +2882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2805,7 +2894,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2837,7 +2926,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3050,6 +3145,7 @@
     <mruColors>
       <color rgb="00FFFD3D"/>
       <color rgb="00FFFE8B"/>
+      <color rgb="00DAC98C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3353,508 +3449,508 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
-    <col min="2" max="2" width="60.2857142857143" style="28" customWidth="1"/>
-    <col min="3" max="3" width="60.4285714285714" style="28" customWidth="1"/>
-    <col min="4" max="4" width="53.1428571428571" style="28" customWidth="1"/>
-    <col min="5" max="5" width="20.8571428571429" style="28" customWidth="1"/>
-    <col min="6" max="6" width="20.2857142857143" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="28"/>
+    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
+    <col min="2" max="2" width="60.2857142857143" style="30" customWidth="1"/>
+    <col min="3" max="3" width="60.4285714285714" style="30" customWidth="1"/>
+    <col min="4" max="4" width="53.1428571428571" style="30" customWidth="1"/>
+    <col min="5" max="5" width="20.8571428571429" style="30" customWidth="1"/>
+    <col min="6" max="6" width="20.2857142857143" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="95" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="36"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="68"/>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" ht="75" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="25"/>
+      <c r="E18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" ht="45" spans="1:6">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="25"/>
+      <c r="E19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="68"/>
+      <c r="E20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" ht="30" spans="1:6">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="68"/>
+      <c r="E21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" ht="30" spans="1:6">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="68"/>
+      <c r="E22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="70"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="25"/>
+      <c r="E23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="25"/>
+      <c r="E24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="25"/>
+      <c r="E25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="E26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="25"/>
+      <c r="E27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="25"/>
+      <c r="E28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="25"/>
+      <c r="E29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="25"/>
+      <c r="E30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="25"/>
+      <c r="E31" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="25"/>
+      <c r="E32" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="27"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-    </row>
-    <row r="36" s="29" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+    </row>
+    <row r="36" s="31" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="63" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A37" s="11"/>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A38" s="11"/>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A39" s="11"/>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A40" s="11"/>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3872,10 +3968,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3883,10 +3979,11 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
@@ -4000,7 +4097,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -4008,202 +4105,337 @@
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:7">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>346</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:1">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="15" t="s">
+      <c r="D25" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A24" s="11"/>
-      <c r="B24" s="15" t="s">
+      <c r="D26" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="11"/>
+      <c r="D27" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:1">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:1">
+      <c r="A29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4221,217 +4453,217 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
-    <col min="2" max="2" width="47.4285714285714" style="28" customWidth="1"/>
-    <col min="3" max="3" width="49.5714285714286" style="28" customWidth="1"/>
-    <col min="4" max="4" width="42.1428571428571" style="28" customWidth="1"/>
-    <col min="5" max="5" width="40.4285714285714" style="28" customWidth="1"/>
-    <col min="6" max="6" width="33.1428571428571" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.7142857142857" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="28"/>
+    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47.4285714285714" style="30" customWidth="1"/>
+    <col min="3" max="3" width="49.5714285714286" style="30" customWidth="1"/>
+    <col min="4" max="4" width="42.1428571428571" style="30" customWidth="1"/>
+    <col min="5" max="5" width="40.4285714285714" style="30" customWidth="1"/>
+    <col min="6" max="6" width="33.1428571428571" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="58" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="36"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="33"/>
-      <c r="E7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="35"/>
+      <c r="E7" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="34"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" ht="29.25" spans="1:6">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="21" s="29" customFormat="1" spans="1:5">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40" t="s">
+      <c r="E19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="21" s="31" customFormat="1" spans="1:5">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="63" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -4460,393 +4692,393 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="29" customWidth="1"/>
-    <col min="2" max="2" width="58.8571428571429" style="29" customWidth="1"/>
-    <col min="3" max="3" width="71" style="29" customWidth="1"/>
-    <col min="4" max="4" width="45.4285714285714" style="29" customWidth="1"/>
-    <col min="5" max="5" width="39" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="29" customWidth="1"/>
-    <col min="8" max="8" width="9" style="29" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="13.5714285714286" style="31" customWidth="1"/>
+    <col min="2" max="2" width="58.8571428571429" style="31" customWidth="1"/>
+    <col min="3" max="3" width="71" style="31" customWidth="1"/>
+    <col min="4" max="4" width="45.4285714285714" style="31" customWidth="1"/>
+    <col min="5" max="5" width="39" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9" style="31" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="79" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="30" spans="1:7">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" s="28" customFormat="1" spans="1:6">
-      <c r="A14" s="25"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" s="30" customFormat="1" spans="1:6">
+      <c r="A14" s="27"/>
       <c r="B14" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" s="28" customFormat="1" spans="1:6">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" s="30" customFormat="1" spans="1:6">
+      <c r="A15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="62"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="62"/>
+      <c r="E18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="64"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="62"/>
+      <c r="E19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" ht="30" spans="1:6">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="62"/>
+      <c r="E20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" ht="45" spans="1:6">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="62"/>
+      <c r="E21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="24" s="29" customFormat="1" spans="1:5">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40" t="s">
+      <c r="E22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="64"/>
+    </row>
+    <row r="24" s="31" customFormat="1" spans="1:5">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="63" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A25" s="11"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A26" s="11"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A27" s="11"/>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4872,335 +5104,335 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
-    <col min="2" max="2" width="36.1428571428571" style="28" customWidth="1"/>
-    <col min="3" max="3" width="56.7142857142857" style="28" customWidth="1"/>
-    <col min="4" max="4" width="43.7142857142857" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.2857142857143" style="28" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="28"/>
+    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
+    <col min="2" max="2" width="36.1428571428571" style="30" customWidth="1"/>
+    <col min="3" max="3" width="56.7142857142857" style="30" customWidth="1"/>
+    <col min="4" max="4" width="43.7142857142857" style="30" customWidth="1"/>
+    <col min="5" max="5" width="21.2857142857143" style="30" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="73" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="5:6">
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" ht="45" spans="1:6">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="E7" s="58" t="s">
+      <c r="C7" s="35"/>
+      <c r="E7" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="11" ht="28.5" spans="1:6">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="25"/>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" s="29" customFormat="1" ht="30" spans="1:6">
-      <c r="A19" s="61" t="s">
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" s="31" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" s="29" customFormat="1" ht="45" spans="1:6">
-      <c r="A20" s="61" t="s">
+      <c r="E19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" s="31" customFormat="1" ht="45" spans="1:6">
+      <c r="A20" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" s="29" customFormat="1" spans="1:6">
-      <c r="A21" s="61" t="s">
+      <c r="E20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" s="31" customFormat="1" spans="1:6">
+      <c r="A21" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="23" s="29" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40" t="s">
+      <c r="E21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="64"/>
+    </row>
+    <row r="23" s="31" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="63" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A24" s="11"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A25" s="11"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A26" s="11"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5224,332 +5456,332 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.4285714285714" style="28" customWidth="1"/>
-    <col min="3" max="3" width="59.1428571428571" style="28" customWidth="1"/>
-    <col min="4" max="4" width="46.2857142857143" style="28" customWidth="1"/>
-    <col min="5" max="5" width="23.5714285714286" style="28" customWidth="1"/>
-    <col min="6" max="6" width="15.8571428571429" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="28"/>
+    <col min="1" max="1" width="13.5714285714286" style="30" customWidth="1"/>
+    <col min="2" max="2" width="44.4285714285714" style="30" customWidth="1"/>
+    <col min="3" max="3" width="59.1428571428571" style="30" customWidth="1"/>
+    <col min="4" max="4" width="46.2857142857143" style="30" customWidth="1"/>
+    <col min="5" max="5" width="23.5714285714286" style="30" customWidth="1"/>
+    <col min="6" max="6" width="15.8571428571429" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="122" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:5">
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="27" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="25"/>
+      <c r="E13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:5">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" s="29" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40" t="s">
+      <c r="E20" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" s="31" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A23" s="11"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A24" s="11"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A25" s="11"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5575,280 +5807,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="29" customWidth="1"/>
-    <col min="2" max="2" width="38.2857142857143" style="29" customWidth="1"/>
-    <col min="3" max="3" width="36.1428571428571" style="29" customWidth="1"/>
-    <col min="4" max="4" width="38.1428571428571" style="29" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" style="29" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="13.5714285714286" style="31" customWidth="1"/>
+    <col min="2" max="2" width="38.2857142857143" style="31" customWidth="1"/>
+    <col min="3" max="3" width="36.1428571428571" style="31" customWidth="1"/>
+    <col min="4" max="4" width="38.1428571428571" style="31" customWidth="1"/>
+    <col min="5" max="5" width="20.7142857142857" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="72" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="30" customFormat="1" ht="72" customHeight="1" spans="1:8">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" s="28" customFormat="1" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" s="30" customFormat="1" spans="1:8">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" s="28" customFormat="1" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" s="30" customFormat="1" spans="1:2">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1"/>
-    <row r="5" s="28" customFormat="1" spans="1:4">
-      <c r="A5" s="31" t="s">
+    <row r="4" s="30" customFormat="1"/>
+    <row r="5" s="30" customFormat="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" ht="30" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="25" t="s">
+    <row r="6" s="30" customFormat="1" ht="30" spans="1:4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="1" ht="45" spans="4:4">
-      <c r="D7" s="45" t="s">
+    <row r="7" s="30" customFormat="1" ht="45" spans="4:4">
+      <c r="D7" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:3">
-      <c r="A8" s="31" t="s">
+    <row r="8" s="30" customFormat="1" spans="1:3">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" s="28" customFormat="1"/>
-    <row r="10" s="28" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A10" s="37" t="s">
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" s="30" customFormat="1"/>
+    <row r="10" s="30" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A11" s="25"/>
+    <row r="11" s="30" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A11" s="27"/>
       <c r="B11" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" s="28" customFormat="1" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" s="28" customFormat="1" ht="30" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" s="30" customFormat="1" spans="1:6">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" s="30" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="25"/>
+      <c r="E13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="38"/>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="38"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" ht="30" spans="1:6">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25"/>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" ht="30" spans="1:6">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="20" s="29" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40" t="s">
+      <c r="E18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="20" s="31" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" spans="1:5">
       <c r="A21" s="11"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5874,283 +6106,283 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="29" customWidth="1"/>
-    <col min="2" max="2" width="33" style="29" customWidth="1"/>
-    <col min="3" max="3" width="46.8571428571429" style="29" customWidth="1"/>
-    <col min="4" max="4" width="43.1428571428571" style="29" customWidth="1"/>
-    <col min="5" max="5" width="22.1428571428571" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.85714285714286" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="13.5714285714286" style="31" customWidth="1"/>
+    <col min="2" max="2" width="33" style="31" customWidth="1"/>
+    <col min="3" max="3" width="46.8571428571429" style="31" customWidth="1"/>
+    <col min="4" max="4" width="43.1428571428571" style="31" customWidth="1"/>
+    <col min="5" max="5" width="22.1428571428571" style="31" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="60" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="30" customFormat="1" ht="60" customHeight="1" spans="1:8">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" s="28" customFormat="1" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" s="30" customFormat="1" spans="1:8">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" s="28" customFormat="1" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" s="30" customFormat="1" spans="1:2">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1"/>
-    <row r="5" s="28" customFormat="1" spans="1:4">
-      <c r="A5" s="31" t="s">
+    <row r="4" s="30" customFormat="1"/>
+    <row r="5" s="30" customFormat="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" ht="30" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+    <row r="6" s="30" customFormat="1" ht="30" spans="1:4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="1" ht="45" spans="4:4">
-      <c r="D7" s="45" t="s">
+    <row r="7" s="30" customFormat="1" ht="45" spans="4:4">
+      <c r="D7" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:3">
-      <c r="A8" s="31" t="s">
+    <row r="8" s="30" customFormat="1" spans="1:3">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="47"/>
-    </row>
-    <row r="9" s="28" customFormat="1"/>
-    <row r="10" s="28" customFormat="1"/>
-    <row r="11" s="28" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A11" s="37" t="s">
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" s="30" customFormat="1"/>
+    <row r="10" s="30" customFormat="1"/>
+    <row r="11" s="30" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A12" s="25"/>
+    <row r="12" s="30" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A12" s="27"/>
       <c r="B12" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" s="28" customFormat="1" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="30" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" s="30" customFormat="1" spans="1:6">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" s="30" customFormat="1" ht="30" spans="1:6">
+      <c r="A14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="25"/>
+      <c r="E14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" ht="30" spans="1:6">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="38"/>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="38"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="38"/>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" ht="75" spans="1:6">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="38"/>
+      <c r="E18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" ht="30" spans="1:6">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="21" s="29" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40" t="s">
+      <c r="E19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="21" s="31" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A23" s="11"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6175,296 +6407,296 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15" style="29" customWidth="1"/>
-    <col min="2" max="2" width="71.2857142857143" style="29" customWidth="1"/>
-    <col min="3" max="3" width="50" style="29" customWidth="1"/>
-    <col min="4" max="4" width="43.4285714285714" style="29" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.2857142857143" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="15" style="31" customWidth="1"/>
+    <col min="2" max="2" width="71.2857142857143" style="31" customWidth="1"/>
+    <col min="3" max="3" width="50" style="31" customWidth="1"/>
+    <col min="4" max="4" width="43.4285714285714" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.8571428571429" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.2857142857143" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" ht="64" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="30" customFormat="1" ht="64" customHeight="1" spans="1:8">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" s="28" customFormat="1" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" s="30" customFormat="1" spans="1:8">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" s="28" customFormat="1" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" s="30" customFormat="1" spans="1:2">
+      <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1"/>
-    <row r="5" s="28" customFormat="1" spans="1:4">
-      <c r="A5" s="31" t="s">
+    <row r="4" s="30" customFormat="1"/>
+    <row r="5" s="30" customFormat="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" ht="45" spans="1:4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+    <row r="6" s="30" customFormat="1" ht="45" spans="1:4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="1"/>
-    <row r="8" s="28" customFormat="1" spans="1:3">
-      <c r="A8" s="31" t="s">
+    <row r="7" s="30" customFormat="1"/>
+    <row r="8" s="30" customFormat="1" spans="1:3">
+      <c r="A8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" s="28" customFormat="1"/>
-    <row r="10" s="28" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A10" s="37" t="s">
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" s="30" customFormat="1"/>
+    <row r="10" s="30" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:6">
-      <c r="A11" s="25"/>
+    <row r="11" s="30" customFormat="1" spans="1:6">
+      <c r="A11" s="27"/>
       <c r="B11" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" s="28" customFormat="1" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" s="28" customFormat="1" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" s="30" customFormat="1" spans="1:6">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" s="30" customFormat="1" spans="1:6">
+      <c r="A13" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="25"/>
+      <c r="E13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" ht="30" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="38"/>
+      <c r="E14" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="38"/>
+      <c r="E15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" ht="30" spans="1:6">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="38"/>
+      <c r="E16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="33"/>
+      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="33"/>
+      <c r="E18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" s="29" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" s="31" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A21" s="11"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
       <c r="A22" s="11"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="43"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6482,515 +6714,515 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14" style="16" customWidth="1"/>
-    <col min="2" max="2" width="71.5714285714286" style="16" customWidth="1"/>
-    <col min="3" max="3" width="50.8571428571429" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" style="16" customWidth="1"/>
-    <col min="5" max="5" width="55.2857142857143" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.1428571428571" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="16"/>
+    <col min="1" max="1" width="14" style="18" customWidth="1"/>
+    <col min="2" max="2" width="71.5714285714286" style="18" customWidth="1"/>
+    <col min="3" max="3" width="50.8571428571429" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" style="18" customWidth="1"/>
+    <col min="5" max="5" width="55.2857142857143" style="18" customWidth="1"/>
+    <col min="6" max="6" width="20.1428571428571" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="23"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="23"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="23"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="23"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" ht="150" spans="1:7">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" ht="120" spans="1:7">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" ht="165" spans="1:7">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" ht="45" spans="1:7">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" ht="45" spans="1:7">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" ht="30" spans="1:7">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" ht="60" spans="1:7">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" ht="45" spans="1:7">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" ht="195" spans="1:7">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" ht="45" spans="1:7">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" ht="30" spans="1:7">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
